--- a/Employee_Reports35/Gomer Repaso Plenos Q0385.xlsx
+++ b/Employee_Reports35/Gomer Repaso Plenos Q0385.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1406,11 +1406,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1455,11 +1455,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1470,53 +1470,41 @@
       <c r="K21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-021</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>14-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>14-Jul-2026</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>253</v>
-      </c>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Endangered by Electricity A safety Training (SOPs)</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr"/>
+      <c r="D22" s="4" t="inlineStr"/>
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>06-Aug-2024</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>06-Aug-2025</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="n">
+        <v>-90</v>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -1524,7 +1512,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1534,7 +1522,7 @@
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>LSME-IMS-SOP-018</t>
+          <t>LSME-IMS-SOP-021</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1544,20 +1532,20 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>09-Apr-2025</t>
+          <t>14-Jul-2025</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>09-Apr-2026</t>
+          <t>14-Jul-2026</t>
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1573,28 +1561,40 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="inlineStr"/>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>10-Apr-2025</t>
+          <t>09-Apr-2025</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>10-Apr-2026</t>
+          <t>09-Apr-2026</t>
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1610,40 +1610,28 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-003</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
+      <c r="E25" s="3" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>25-Jul-2025</t>
+          <t>10-Apr-2025</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>25-Jul-2026</t>
+          <t>10-Apr-2026</t>
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>264</v>
+        <v>157</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1659,17 +1647,17 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Weight Scale Verification Procedure(LSME-IMS-SOP-023 ) (SOPs)</t>
+          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>IMS</t>
+          <t>CARGO</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>LSME-IMS-SOP-023</t>
+          <t>LSME-CRG-SOP-003</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1679,20 +1667,20 @@
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>18-Jul-2025</t>
+          <t>25-Jul-2025</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>18-Jul-2026</t>
+          <t>25-Jul-2026</t>
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1708,17 +1696,17 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
+          <t>Weight Scale Verification Procedure(LSME-IMS-SOP-023 ) (SOPs)</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>CARGO</t>
+          <t>IMS</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-009</t>
+          <t>LSME-IMS-SOP-023</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1728,20 +1716,20 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>25-Jul-2025</t>
+          <t>18-Jul-2025</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>25-Jul-2026</t>
+          <t>18-Jul-2026</t>
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1757,7 +1745,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
+          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1767,7 +1755,7 @@
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-010</t>
+          <t>LSME-CRG-SOP-009</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1777,20 +1765,20 @@
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2025</t>
+          <t>25-Jul-2025</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2026</t>
+          <t>25-Jul-2026</t>
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1806,7 +1794,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
+          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1816,7 +1804,7 @@
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-001</t>
+          <t>LSME-CRG-SOP-010</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1826,20 +1814,20 @@
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>24-Jul-2025</t>
+          <t>26-Jul-2025</t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>24-Jul-2026</t>
+          <t>26-Jul-2026</t>
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1855,28 +1843,40 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="inlineStr"/>
+          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-001</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>30-Sep-2025</t>
+          <t>24-Jul-2025</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>30-Sep-2026</t>
+          <t>24-Jul-2026</t>
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>331</v>
+        <v>262</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1892,40 +1892,28 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-011</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
+      <c r="E31" s="3" t="inlineStr"/>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>15-Aug-2025</t>
+          <t>30-Sep-2025</t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>15-Aug-2026</t>
+          <t>30-Sep-2026</t>
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1941,7 +1929,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1951,7 +1939,7 @@
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-018</t>
+          <t>LSME-CRG-SOP-011</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1970,11 +1958,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -1990,36 +1978,85 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
+          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>15-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>15-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>284</v>
+      </c>
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
           <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr"/>
-      <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="3" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr"/>
+      <c r="D34" s="3" t="inlineStr"/>
+      <c r="E34" s="3" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr">
         <is>
           <t>12-Jul-2025</t>
         </is>
       </c>
-      <c r="G33" s="3" t="inlineStr">
+      <c r="G34" s="3" t="inlineStr">
         <is>
           <t>12-Jul-2027</t>
         </is>
       </c>
-      <c r="H33" s="3" t="n">
-        <v>616</v>
-      </c>
-      <c r="I33" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K33" s="3" t="inlineStr"/>
+      <c r="H34" s="3" t="n">
+        <v>615</v>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Gomer Repaso Plenos Q0385.xlsx
+++ b/Employee_Reports35/Gomer Repaso Plenos Q0385.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1406,11 +1406,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1455,11 +1455,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1492,11 +1492,11 @@
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>-90</v>
+        <v>-91</v>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1541,11 +1541,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1590,11 +1590,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1627,11 +1627,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1676,11 +1676,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1725,11 +1725,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1774,11 +1774,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1823,11 +1823,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1872,11 +1872,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1909,11 +1909,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1958,11 +1958,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2007,11 +2007,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2044,11 +2044,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
